--- a/biology/Botanique/Saponaire_de_Montpellier/Saponaire_de_Montpellier.xlsx
+++ b/biology/Botanique/Saponaire_de_Montpellier/Saponaire_de_Montpellier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saponaria ocymoides
 La Saponaire de Montpellier (Saponaria ocymoides), également appelée Saponaire des rochers, Saponaire faux Basilic ou Saponaire rose est une plante herbacée vivace du genre des Saponaires et de la famille des Caryophyllacées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petites fleurs roses plus ou moins foncées selon l'altitude.
 Elle contiennent une substance (Saponine) qui peut mousser comme du savon.
@@ -545,7 +559,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante commercialisée comme une vivace tapissante pour rocailles.
 </t>
@@ -576,9 +592,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France l'espèce est évaluée comme non préoccupante[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France l'espèce est évaluée comme non préoccupante.
 Elle  est considérée comme étant vulnérable (VU) en Bourgogne.
 </t>
         </is>
